--- a/ProjectMARS_TestCases.xlsx
+++ b/ProjectMARS_TestCases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitProjects\Internship\Project-Mars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3492C6EC-E8FA-4A18-A07E-274B34CFC3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2858662-04BB-4FE1-8291-DE737D3DD4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{48572783-F6D5-41C8-AB5D-CE55A7E47CD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{48572783-F6D5-41C8-AB5D-CE55A7E47CD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="INDEX" sheetId="3" r:id="rId1"/>
-    <sheet name="Login " sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Index" sheetId="3" r:id="rId1"/>
+    <sheet name="MARS_Sprint1" sheetId="2" r:id="rId2"/>
+    <sheet name="Defects" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,34 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
-  <si>
-    <t>WebUI.openBrowser('')</t>
-  </si>
-  <si>
-    <t>WebUI.navigateToUrl('http://localhost:5000/Home')</t>
-  </si>
-  <si>
-    <t>WebUI.click(findTestObject('Object Repository/Page_Home/a_Sign In'))</t>
-  </si>
-  <si>
-    <t>WebUI.setText(findTestObject('Object Repository/Page_Home/input_Buying on Mars_email'), 'remibala2@gmail.com')</t>
-  </si>
-  <si>
-    <t>WebUI.setEncryptedText(findTestObject('Object Repository/Page_Home/input_Buying on Mars_password'), 'dRUKI3/G8ntiElwCNm7gFu/g3k+jdHbc')</t>
-  </si>
-  <si>
-    <t>WebUI.click(findTestObject('Object Repository/Page_Home/button_Login'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebUI.verifyElementText(findTestObject('Object Repository/Page_Profile/span_Hi RemiGo to ProfileChange PasswordCre_ad5d68'), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    'Hi RemiGo to ProfileChange PasswordCredits : 100TransactionAccount Settings')</t>
-  </si>
-  <si>
-    <t>WebUI.closeBrowser()</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="167">
   <si>
     <t>Sprint</t>
   </si>
@@ -124,13 +97,685 @@
   </si>
   <si>
     <t>Not Started</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Step Details</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>User Story 1</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC1</t>
+  </si>
+  <si>
+    <t>Prerequisite</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter valid Username and Password
+4.Click Login button
+5.User navigated to Home page
+6.Verify username</t>
+  </si>
+  <si>
+    <t>1. User successfully logs in to Homepage
+2.User able to see username in right corner of homepage</t>
+  </si>
+  <si>
+    <t>Login-Valid User</t>
+  </si>
+  <si>
+    <t>Valid Username and Password</t>
+  </si>
+  <si>
+    <t>username:remibala2@gmail.com
+password:********</t>
+  </si>
+  <si>
+    <t>As a user, I should be able to Login to MARS successfully</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC2</t>
+  </si>
+  <si>
+    <t>Login-Valid User with Remember Me checked</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter valid Username and Password
+4.Check 'Remember Me' checkbox
+5.Click Login button
+6.User navigated to Home page
+7.Verify username
+8.Click Log out
+9. Click Login In again</t>
+  </si>
+  <si>
+    <t>1. User successfully logs in to Homepage
+2.User able to see username in right corner of homepage
+3.After Log out and Login, Username and Password auto populated and 'Remember Me' checkbox checked</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC3</t>
+  </si>
+  <si>
+    <t>Login-Valid User - Forgot Password</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.User click 'Forgot Password' link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User navigated to 'Send Verification Email' popup
+2. User enter valid email Id and click 'Send Verification Email' button
+3. 'A recovery link has been sent to your inbox.
+Please use the link to recover your account.' message </t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC4</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.User click 'Forgot Password' link
+4.User navigated to 'Send Verification email' pop up
+5.User Click on 'Remember your Password?' link</t>
+  </si>
+  <si>
+    <t>1. User navigated to Login Page again</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC5</t>
+  </si>
+  <si>
+    <t>Register New User</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Join' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 User navigated to Register New User page
+2. User enter First Name, Last Name, Email ID, Password, Confirm Password, Agree TCs checkbox
+3. Click Join </t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Join' button
+3.User navigated to Register New User page
+4. User enter First Name, Last Name, Email ID, Password, Confirm Password, Agree TCs checkbox
+5. Click Join </t>
+  </si>
+  <si>
+    <t>1. New User created successfully
+2. User logged into homepage</t>
+  </si>
+  <si>
+    <t>Login at Register New User Page</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Join' button
+3.User navigated to Register New User page
+4. User click on Login button</t>
+  </si>
+  <si>
+    <t>1.User navigated to Login Page</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC7</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC8</t>
+  </si>
+  <si>
+    <t>User successfully logs in with valid credentials</t>
+  </si>
+  <si>
+    <t>1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Languages' Tab
+4. Click 'Add New' Language button
+5. Enter the langugae you speak
+6. Choose proficiency from 'Langugae Level' drop down
+7. Click 'Add' button</t>
+  </si>
+  <si>
+    <t>1.User able to see new language added</t>
+  </si>
+  <si>
+    <t>Language - English
+Proficiency - Basic
+Language - English
+Proficiency - Conversational
+Language - English
+Proficiency - Fluent
+Language - English
+Proficiency - Native/Bilingual</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC9</t>
+  </si>
+  <si>
+    <t>1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Languages' Tab
+4. Click 'Add New' Language button
+5. Enter the langugae you speak
+6. Choose proficiency from 'Langugae Level' drop down
+7. Click 'Cancel' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Users new language not added </t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Languages' Tab
+4. Click 'X' against Language button
+</t>
+  </si>
+  <si>
+    <t>1.Language deleted successfully</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Languages' Tab
+4. Click pen icon against Language button
+5. Make changes to Language and proficiency
+6. Click on 'Update' button
+</t>
+  </si>
+  <si>
+    <t>1.New changes updated successfully</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Languages' Tab
+4. Click pen icon against Language button
+5. Make no changes to Language and proficiency
+6. Click on 'Update' button
+</t>
+  </si>
+  <si>
+    <t>1.'This language is already added to your language list' pop up
+2. No changes made</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Languages' Tab
+4. Click pen icon against Language button
+5. Make changes to Language and proficiency
+6. Click on 'Cancel' button
+</t>
+  </si>
+  <si>
+    <t>1.Back to Profile Languages page
+2. No changes made</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC14</t>
+  </si>
+  <si>
+    <t>Skills - C#
+Skill Level-Beginner
+Skills - C
+Skill Level-Intermediate
+Skills - Java
+Skill Level-Expert</t>
+  </si>
+  <si>
+    <t>1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Skills' Tab
+4. Click 'Add New' Skill button
+5. Enter your skill
+6. Choose Skill level
+7. Click 'Add' button</t>
+  </si>
+  <si>
+    <t>1.User able to see new skill added</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC15</t>
+  </si>
+  <si>
+    <t>1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Skills' Tab
+4. Click 'Add New' Skill button
+5. Enter your skill
+6. Choose 'Skill Level' drop down
+7. Click 'Cancel' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Users new skill not added </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Skill' Tab
+4. Click 'X' against Language button
+</t>
+  </si>
+  <si>
+    <t>1.Skill deleted successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Skills' Tab
+4. Click pen icon against Skill
+5. Make changes to Skill and level
+6. Click on 'Update' button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Skills' Tab
+4. Click pen icon against Skill button
+5. Make no changes to Skill and proficiency
+6. Click on 'Update' button
+</t>
+  </si>
+  <si>
+    <t>1.'This skill is already added to your skill list' pop up
+2. No changes made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User login to MARS and lands on Dashboard
+2. Click 'Profile' Tab
+3. Click 'Skill' Tab
+4. Click pen icon against Skill button
+5. Make changes to Skill and level
+6. Click on 'Cancel' button
+</t>
+  </si>
+  <si>
+    <t>1.Back to Profile Skills page
+2. No changes made</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC16</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC17</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC18</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC19</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC20</t>
+  </si>
+  <si>
+    <t>Invalid Username and Password</t>
+  </si>
+  <si>
+    <t>Login-Invalid User</t>
+  </si>
+  <si>
+    <t>username:remibala@gmail.com
+password:********</t>
+  </si>
+  <si>
+    <t>Invalid Username</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter invalid Username and Password
+4.Click Login button</t>
+  </si>
+  <si>
+    <t>1. User redirected to 'Confirm your Email' pop up</t>
+  </si>
+  <si>
+    <t>1. Verification Email sent popup</t>
+  </si>
+  <si>
+    <t>1. Verification Failed Error popup</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC21</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC22</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter valid Username and invalid Password
+4.Click Login button
+5.User redirected to 'Confirm your Email' pop up
+6. User enters valid email</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter valid Username and invalid Password
+4.Click Login button
+5.User redirected to 'Confirm your Email' pop up
+6. User enters invalid email</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter invalid Username and valid Password
+4.Click Login button
+5.User redirected to 'Confirm your Email' pop up
+6. User enters valid email</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter invalid Username and valid Password
+4.Click Login button
+5.User redirected to 'Confirm your Email' pop up
+6. User enters invalid email</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter invalid Username and invalid Password
+4.Click Login button
+5.User redirected to 'Confirm your Email' pop up
+6. User enters valid email</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter invalid Username and invalid Password
+4.Click Login button
+5.User redirected to 'Confirm your Email' pop up
+6. User enters invalid email</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC23</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC24</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC25</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC26</t>
+  </si>
+  <si>
+    <t>Profile_Languages-Add new language</t>
+  </si>
+  <si>
+    <t>Profile_Languages-Cancel at Add new language</t>
+  </si>
+  <si>
+    <t>Profile_Languages-Delete language</t>
+  </si>
+  <si>
+    <t>Profile_Languages-Edit language</t>
+  </si>
+  <si>
+    <t>Profile_Languages-Edit language-No change</t>
+  </si>
+  <si>
+    <t>Profile_Languages-Edit language-Cancel button</t>
+  </si>
+  <si>
+    <t>Profile_Skills-Add new skill</t>
+  </si>
+  <si>
+    <t>Profile_Skills-Cancel at Add new skill</t>
+  </si>
+  <si>
+    <t>Profile_Skills-Delete skill</t>
+  </si>
+  <si>
+    <t>Profile_Skills-Edit skill</t>
+  </si>
+  <si>
+    <t>Profile_Skills-Edit skill-No change</t>
+  </si>
+  <si>
+    <t>Profile_Skills-Edit skill-Cancel button</t>
+  </si>
+  <si>
+    <t>Profile_Description</t>
+  </si>
+  <si>
+    <t>Description text</t>
+  </si>
+  <si>
+    <t>1. User login to MARS and lands on Dashboard
+2. Click pen icon for Description and enter characters upto 600 characters
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Users Description saved and displayed</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC27</t>
+  </si>
+  <si>
+    <t>Register Existing User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Join' button
+3.User navigated to Register New User page
+4. User enter First Name, Last Name, existing Email ID, Password, Confirm Password, Agree TCs checkbox
+5. Click Join </t>
+  </si>
+  <si>
+    <t>1.'This email has already been used to register an account' error message
+2. No user created</t>
+  </si>
+  <si>
+    <t>Register with Null values</t>
+  </si>
+  <si>
+    <t>Null FirstName/LastName/Email/Password/Confirm Password/</t>
+  </si>
+  <si>
+    <t>Firstname-''
+LastName-K
+Email-remibala2@gmail.com
+Password-**
+ConfirmPassword-**
+Firstname-K
+LastName-''
+Email-remibala2@gmail.com
+Password-**
+ConfirmPassword-**
+Firstname-P
+LastName-K
+Email-''
+Password-**
+ConfirmPassword-**
+Firstname-''
+LastName-K
+Email-remibala2@gmail.com
+Password-''
+ConfirmPassword-**
+Firstname-''
+LastName-K
+Email-remibala2@gmail.com
+Password-**
+ConfirmPassword-''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Join' button
+3.User navigated to Register New User page
+4. User enter null value in any of the field First Name, Last Name, existing Email ID, Password, Confirm Password, Agree TCs checkbox checked
+5. Click Join </t>
+  </si>
+  <si>
+    <t>1. No user created
+2. User still in Register user page</t>
+  </si>
+  <si>
+    <t>Firstname-P
+LastName-K
+Email-remibala2@gmail.com
+Password-**
+ConfirmPassword-*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Join' button
+3.User navigated to Register New User page
+4. User enter First Name, Last Name, Email ID, Password, incorrect Confirm Password, Agree TCs checkbox
+5. Click Join </t>
+  </si>
+  <si>
+    <t>Register New User - 'Confirm Password' mismatch</t>
+  </si>
+  <si>
+    <t>Register New User - Agree TCs not checked</t>
+  </si>
+  <si>
+    <t>Firstname-P
+LastName-K
+Email-remibala2@gmail.com
+Password-**
+ConfirmPassword-**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Join' button
+3.User navigated to Register New User page
+4. User enter First Name, Last Name, Email ID, Password, incorrect Confirm Password, TCs checkbox unchecked
+5. Click Join </t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC28</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC29</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC30</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC31</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Defect Description</t>
+  </si>
+  <si>
+    <t>Remember Me checkbox not checked after logout</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter valid Username and Password
+4.Check 'Remember Me' checkbox
+5.Click Login button
+6.User navigated to Home page
+7.Verify username
+8.Click Log out</t>
+  </si>
+  <si>
+    <t>1. When user is logged out, 'Remember Me checkbox' should be checked</t>
+  </si>
+  <si>
+    <t>1. When user is logged out, 'Remember Me checkbox' is unchecked</t>
+  </si>
+  <si>
+    <t>1. User should be able to uncheck 'Remember Me checkbox'</t>
+  </si>
+  <si>
+    <t>1.Open Browser and Navigate To Url 'http://localhost:5000/Home'
+2.Click 'Sign In' button
+3.Enter valid Username and Password
+4.Check 'Remember Me' checkbox
+5.Click Login button
+6.User navigated to Home page
+7.Verify username
+8.Click Log out
+9. Click on 'Remember Me' checkbox again to uncheck option</t>
+  </si>
+  <si>
+    <t>Unable to uncheck Remember Me option</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tagged Defect ID</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,16 +795,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,20 +831,814 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -191,6 +1649,63 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D904774-16EC-4C26-A73B-149BECE26379}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
+  <autoFilter ref="A1:G4" xr:uid="{4D904774-16EC-4C26-A73B-149BECE26379}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D9D371ED-CD8B-4914-A412-03EA8B12AC63}" name="US#" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{EABB930F-D1CA-4BFC-B3A6-3BE62C64323A}" name="Sprint" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{539B0451-E917-4FED-97B7-42FC5C39DA29}" name="User Stories" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{C88A24C4-F791-4464-99E8-F3752E031CC8}" name="Description" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{C380670A-DC06-4CB3-93B5-84FAAEC935B7}" name="Use case" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{DE3739BF-57AE-4ECF-861C-02CFE43EB08C}" name="Acceptance Criteria" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{32EC69A9-A28A-4E7C-B06B-2CD3AF6EF34E}" name="Status" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9F14E826-C11F-43A8-8925-9456C7EBBDCC}" name="Table2" displayName="Table2" ref="A1:L32" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
+  <autoFilter ref="A1:L32" xr:uid="{9F14E826-C11F-43A8-8925-9456C7EBBDCC}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{070BBD11-C3C8-47B3-AC68-6B7F19B63D6F}" name="Test Case ID" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{E42CC383-D2EA-45A7-9F02-5A48A711619A}" name="Sprint" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{4125011B-EA06-4ABF-82FB-A35D7C25FFBE}" name="User Story" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{0E124D96-061D-460D-98F3-D19B7506A14B}" name="Test Case Description" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{E945F1F4-F95F-44DD-84F7-4F354C9ADE68}" name="Prerequisite" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{B41E1F24-F3E7-41F7-ADA1-320A7AB2AD60}" name="Test Data" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{E8E73CD1-D785-4FEC-ACB7-23C5CB7DBCD0}" name="Test Scenario" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{CA305351-F3DE-4F94-A4B3-DFAD163C2B46}" name="Step Details" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{95445212-E84F-4AC0-894A-FC650183A32D}" name="Expected Results" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{6C573AE1-776B-4BEE-AA71-535D0F94FE1F}" name="Actual Results" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{0C22C208-AED6-4EC2-ABCA-97A89D3BF482}" name="Tagged Defect ID" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{36F7B6D5-252F-43AB-BEAB-3006F6786524}" name="Evidence" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{28BEF41F-86A3-4701-9489-0A6D3EAB6C0D}" name="Table3" displayName="Table3" ref="A1:K3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="15">
+  <autoFilter ref="A1:K3" xr:uid="{28BEF41F-86A3-4701-9489-0A6D3EAB6C0D}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{D0AFBD4A-6653-451C-9F3E-ABBBF4525289}" name="Defect ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{05244D7F-F071-4181-9E36-E3D2ABE4C795}" name="Sprint" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{3C4064FF-762D-4BDC-9D80-EC4540ACDCFE}" name="User Story" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{A21286D4-8952-470D-ABBC-DE0B4787D24B}" name="Test Case ID" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{61DC43EC-A998-45B5-8413-064E850E8D0A}" name="Test Data" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{EA246024-E703-4BBA-A8AB-092EBEB552AA}" name="Test Case Description" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{4AF8A4D5-A71F-4586-A6A2-CE2CA30A8F43}" name="Defect Description" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{146F157B-EB9B-4699-A1CE-F4EB4FBF8142}" name="Step Details" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{EC05D26C-8167-4D41-B8AE-38E2737C0035}" name="Expected Results" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{94262B80-EDCE-43C9-B780-D7CB084BAA01}" name="Actual Results" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{307C5D01-DDF0-4F9A-8FEB-4C49003D89D9}" name="Status" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,107 +2027,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE50BB25-C713-4D8C-9A8C-B5732627C59B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="67.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="46" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="138" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -621,77 +2136,1200 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EFF514-1A2F-4FC2-9FFA-F9575C74F5A7}">
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E96256-CD2D-4B37-A720-8EC3852A916E}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E96256-CD2D-4B37-A720-8EC3852A916E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A1E3F-1A6B-4981-88CB-55E6E131AF90}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="7"/>
+    <col min="3" max="3" width="9.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="7" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="24.453125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="26.08984375" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="126" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ProjectMARS_TestCases.xlsx
+++ b/ProjectMARS_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitProjects\Internship\Project-Mars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2858662-04BB-4FE1-8291-DE737D3DD4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE80911-C167-46B0-B2D1-B62C1A79D54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{48572783-F6D5-41C8-AB5D-CE55A7E47CD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{48572783-F6D5-41C8-AB5D-CE55A7E47CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE50BB25-C713-4D8C-9A8C-B5732627C59B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2146,7 +2146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E96256-CD2D-4B37-A720-8EC3852A916E}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>

--- a/ProjectMARS_TestCases.xlsx
+++ b/ProjectMARS_TestCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitProjects\Internship\Project-Mars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE80911-C167-46B0-B2D1-B62C1A79D54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F29FDD-2E8A-4319-80E0-3442E0734955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{48572783-F6D5-41C8-AB5D-CE55A7E47CD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48572783-F6D5-41C8-AB5D-CE55A7E47CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="175">
   <si>
     <t>Sprint</t>
   </si>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t>Profile_Skills-Edit skill-Cancel button</t>
-  </si>
-  <si>
-    <t>Profile_Description</t>
   </si>
   <si>
     <t>Description text</t>
@@ -770,12 +767,41 @@
   <si>
     <t>1,2</t>
   </si>
+  <si>
+    <t>Profile_Description Null</t>
+  </si>
+  <si>
+    <t>1. User login to MARS and lands on Dashboard
+2. Click pen icon for Description and enters nothing
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. Description mandatory error</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC32</t>
+  </si>
+  <si>
+    <t>Profile_Description-Add</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Mandate</t>
+  </si>
+  <si>
+    <t>Smoke,Regression</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,8 +834,15 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,8 +855,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -840,11 +879,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -858,20 +997,616 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -890,25 +1625,14 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -984,10 +1708,18 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -997,17 +1729,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="Cambria"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1082,6 +1808,14 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1139,29 +1873,23 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
         <name val="Cambria"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
           <color theme="4"/>
-        </top>
-        <bottom/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -1182,18 +1910,10 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1203,269 +1923,48 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Cambria"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
+    </dxf>
+    <dxf>
+      <border>
         <top style="thin">
-          <color theme="4"/>
+          <color indexed="64"/>
         </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
-          <color theme="4"/>
+          <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1652,57 +2151,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D904774-16EC-4C26-A73B-149BECE26379}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D904774-16EC-4C26-A73B-149BECE26379}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:G4" xr:uid="{4D904774-16EC-4C26-A73B-149BECE26379}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D9D371ED-CD8B-4914-A412-03EA8B12AC63}" name="US#" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{EABB930F-D1CA-4BFC-B3A6-3BE62C64323A}" name="Sprint" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{539B0451-E917-4FED-97B7-42FC5C39DA29}" name="User Stories" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{C88A24C4-F791-4464-99E8-F3752E031CC8}" name="Description" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{C380670A-DC06-4CB3-93B5-84FAAEC935B7}" name="Use case" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{DE3739BF-57AE-4ECF-861C-02CFE43EB08C}" name="Acceptance Criteria" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{32EC69A9-A28A-4E7C-B06B-2CD3AF6EF34E}" name="Status" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{D9D371ED-CD8B-4914-A412-03EA8B12AC63}" name="US#" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{EABB930F-D1CA-4BFC-B3A6-3BE62C64323A}" name="Sprint" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{539B0451-E917-4FED-97B7-42FC5C39DA29}" name="User Stories" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{C88A24C4-F791-4464-99E8-F3752E031CC8}" name="Description" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{C380670A-DC06-4CB3-93B5-84FAAEC935B7}" name="Use case" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{DE3739BF-57AE-4ECF-861C-02CFE43EB08C}" name="Acceptance Criteria" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{32EC69A9-A28A-4E7C-B06B-2CD3AF6EF34E}" name="Status" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9F14E826-C11F-43A8-8925-9456C7EBBDCC}" name="Table2" displayName="Table2" ref="A1:L32" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
-  <autoFilter ref="A1:L32" xr:uid="{9F14E826-C11F-43A8-8925-9456C7EBBDCC}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{070BBD11-C3C8-47B3-AC68-6B7F19B63D6F}" name="Test Case ID" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{E42CC383-D2EA-45A7-9F02-5A48A711619A}" name="Sprint" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{4125011B-EA06-4ABF-82FB-A35D7C25FFBE}" name="User Story" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{0E124D96-061D-460D-98F3-D19B7506A14B}" name="Test Case Description" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{E945F1F4-F95F-44DD-84F7-4F354C9ADE68}" name="Prerequisite" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{B41E1F24-F3E7-41F7-ADA1-320A7AB2AD60}" name="Test Data" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{E8E73CD1-D785-4FEC-ACB7-23C5CB7DBCD0}" name="Test Scenario" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{CA305351-F3DE-4F94-A4B3-DFAD163C2B46}" name="Step Details" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{95445212-E84F-4AC0-894A-FC650183A32D}" name="Expected Results" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{6C573AE1-776B-4BEE-AA71-535D0F94FE1F}" name="Actual Results" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{0C22C208-AED6-4EC2-ABCA-97A89D3BF482}" name="Tagged Defect ID" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{36F7B6D5-252F-43AB-BEAB-3006F6786524}" name="Evidence" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9F14E826-C11F-43A8-8925-9456C7EBBDCC}" name="Table2" displayName="Table2" ref="A1:M33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="A1:M33" xr:uid="{9F14E826-C11F-43A8-8925-9456C7EBBDCC}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{070BBD11-C3C8-47B3-AC68-6B7F19B63D6F}" name="Test Case ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{E42CC383-D2EA-45A7-9F02-5A48A711619A}" name="Sprint" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4125011B-EA06-4ABF-82FB-A35D7C25FFBE}" name="User Story" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{0E124D96-061D-460D-98F3-D19B7506A14B}" name="Test Case Description" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E945F1F4-F95F-44DD-84F7-4F354C9ADE68}" name="Prerequisite" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B41E1F24-F3E7-41F7-ADA1-320A7AB2AD60}" name="Test Data" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{E8E73CD1-D785-4FEC-ACB7-23C5CB7DBCD0}" name="Test Scenario" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{CA305351-F3DE-4F94-A4B3-DFAD163C2B46}" name="Step Details" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{95445212-E84F-4AC0-894A-FC650183A32D}" name="Expected Results" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{6C573AE1-776B-4BEE-AA71-535D0F94FE1F}" name="Actual Results" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{0C22C208-AED6-4EC2-ABCA-97A89D3BF482}" name="Tagged Defect ID" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{4B434FFF-E39B-4C06-97E2-4EF051D85FD1}" name="Evidence" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{36F7B6D5-252F-43AB-BEAB-3006F6786524}" name="Test Type" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{28BEF41F-86A3-4701-9489-0A6D3EAB6C0D}" name="Table3" displayName="Table3" ref="A1:K3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{28BEF41F-86A3-4701-9489-0A6D3EAB6C0D}" name="Table3" displayName="Table3" ref="A1:K3" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="A1:K3" xr:uid="{28BEF41F-86A3-4701-9489-0A6D3EAB6C0D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D0AFBD4A-6653-451C-9F3E-ABBBF4525289}" name="Defect ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{05244D7F-F071-4181-9E36-E3D2ABE4C795}" name="Sprint" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{3C4064FF-762D-4BDC-9D80-EC4540ACDCFE}" name="User Story" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{A21286D4-8952-470D-ABBC-DE0B4787D24B}" name="Test Case ID" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{61DC43EC-A998-45B5-8413-064E850E8D0A}" name="Test Data" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{EA246024-E703-4BBA-A8AB-092EBEB552AA}" name="Test Case Description" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{4AF8A4D5-A71F-4586-A6A2-CE2CA30A8F43}" name="Defect Description" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{146F157B-EB9B-4699-A1CE-F4EB4FBF8142}" name="Step Details" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{EC05D26C-8167-4D41-B8AE-38E2737C0035}" name="Expected Results" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{94262B80-EDCE-43C9-B780-D7CB084BAA01}" name="Actual Results" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{307C5D01-DDF0-4F9A-8FEB-4C49003D89D9}" name="Status" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D0AFBD4A-6653-451C-9F3E-ABBBF4525289}" name="Defect ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{05244D7F-F071-4181-9E36-E3D2ABE4C795}" name="Sprint" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{3C4064FF-762D-4BDC-9D80-EC4540ACDCFE}" name="User Story" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{A21286D4-8952-470D-ABBC-DE0B4787D24B}" name="Test Case ID" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{61DC43EC-A998-45B5-8413-064E850E8D0A}" name="Test Data" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{EA246024-E703-4BBA-A8AB-092EBEB552AA}" name="Test Case Description" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{4AF8A4D5-A71F-4586-A6A2-CE2CA30A8F43}" name="Defect Description" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{146F157B-EB9B-4699-A1CE-F4EB4FBF8142}" name="Step Details" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{EC05D26C-8167-4D41-B8AE-38E2737C0035}" name="Expected Results" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{94262B80-EDCE-43C9-B780-D7CB084BAA01}" name="Actual Results" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{307C5D01-DDF0-4F9A-8FEB-4C49003D89D9}" name="Status" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2027,23 +2527,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE50BB25-C713-4D8C-9A8C-B5732627C59B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2089,7 +2589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2112,22 +2612,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2144,1060 +2644,1200 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E96256-CD2D-4B37-A720-8EC3852A916E}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.90625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="D21" s="15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="D22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C33" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D33" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F33" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="H33" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I33" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="J33" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3213,25 +3853,25 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="7"/>
-    <col min="3" max="3" width="9.6328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="7" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" style="7" customWidth="1"/>
-    <col min="8" max="9" width="24.453125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="26.08984375" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="10.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="6"/>
+    <col min="3" max="3" width="9.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" style="6" customWidth="1"/>
+    <col min="8" max="9" width="24.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>153</v>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3249,7 +3889,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>20</v>
@@ -3264,8 +3904,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+    <row r="2" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3282,21 +3922,21 @@
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="126" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3313,16 +3953,16 @@
         <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K3" s="4"/>
     </row>

--- a/ProjectMARS_TestCases.xlsx
+++ b/ProjectMARS_TestCases.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitProjects\Internship\Project-Mars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F29FDD-2E8A-4319-80E0-3442E0734955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FC55F-1A32-4D62-836E-736B7E841FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{48572783-F6D5-41C8-AB5D-CE55A7E47CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
-    <sheet name="MARS_Sprint1" sheetId="2" r:id="rId2"/>
+    <sheet name="MARS_OnBoarding_Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Defects" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="197">
   <si>
     <t>Sprint</t>
   </si>
@@ -776,9 +777,6 @@
 3. Click on Save button</t>
   </si>
   <si>
-    <t>1. Description mandatory error</t>
-  </si>
-  <si>
     <t>Sprint1_US1_TC32</t>
   </si>
   <si>
@@ -795,6 +793,83 @@
   </si>
   <si>
     <t>Smoke,Regression</t>
+  </si>
+  <si>
+    <t>Automation/Manual</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>User Story 2</t>
+  </si>
+  <si>
+    <t>Edit Language - User is able to add same language with different Fluency Level</t>
+  </si>
+  <si>
+    <t>1. User click on Edit Pen button for a language
+2.User enter already existing language name but different fluency level</t>
+  </si>
+  <si>
+    <t>1. 'Duplicate Data' error pop up</t>
+  </si>
+  <si>
+    <t>User able to enter duplicate language with different fluency level</t>
+  </si>
+  <si>
+    <t>Profile_Description Starting with special characters</t>
+  </si>
+  <si>
+    <t>1. User login to MARS and lands on Dashboard
+2. Click pen icon for Description and enters Description starting with Special Character
+3. Click on Save button</t>
+  </si>
+  <si>
+    <t>1. First Character can only be Digit or letters error</t>
+  </si>
+  <si>
+    <t>1. Please, a description is required error</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC33</t>
+  </si>
+  <si>
+    <t>Language - Spanish
+Proficiency - Basic</t>
+  </si>
+  <si>
+    <t>Language - English
+Proficiency - Fluent</t>
+  </si>
+  <si>
+    <t>Language - ''
+Proficiency - Choose Language Level</t>
+  </si>
+  <si>
+    <t>1. Error message
+2. Langugae not added</t>
+  </si>
+  <si>
+    <t>Language - English
+Proficiency - Choose Language Level</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC34</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC35</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC36</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC37</t>
+  </si>
+  <si>
+    <t>Sprint1_US1_TC38</t>
   </si>
 </sst>
 </file>
@@ -842,7 +917,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,12 +928,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -983,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1003,47 +1072,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
     <dxf>
       <font>
         <b val="0"/>
@@ -1102,6 +1165,43 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2151,37 +2251,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D904774-16EC-4C26-A73B-149BECE26379}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D904774-16EC-4C26-A73B-149BECE26379}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:G4" xr:uid="{4D904774-16EC-4C26-A73B-149BECE26379}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D9D371ED-CD8B-4914-A412-03EA8B12AC63}" name="US#" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{EABB930F-D1CA-4BFC-B3A6-3BE62C64323A}" name="Sprint" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{539B0451-E917-4FED-97B7-42FC5C39DA29}" name="User Stories" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{C88A24C4-F791-4464-99E8-F3752E031CC8}" name="Description" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{C380670A-DC06-4CB3-93B5-84FAAEC935B7}" name="Use case" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{DE3739BF-57AE-4ECF-861C-02CFE43EB08C}" name="Acceptance Criteria" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{32EC69A9-A28A-4E7C-B06B-2CD3AF6EF34E}" name="Status" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{D9D371ED-CD8B-4914-A412-03EA8B12AC63}" name="US#" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{EABB930F-D1CA-4BFC-B3A6-3BE62C64323A}" name="Sprint" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{539B0451-E917-4FED-97B7-42FC5C39DA29}" name="User Stories" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{C88A24C4-F791-4464-99E8-F3752E031CC8}" name="Description" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{C380670A-DC06-4CB3-93B5-84FAAEC935B7}" name="Use case" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{DE3739BF-57AE-4ECF-861C-02CFE43EB08C}" name="Acceptance Criteria" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{32EC69A9-A28A-4E7C-B06B-2CD3AF6EF34E}" name="Status" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9F14E826-C11F-43A8-8925-9456C7EBBDCC}" name="Table2" displayName="Table2" ref="A1:M33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
-  <autoFilter ref="A1:M33" xr:uid="{9F14E826-C11F-43A8-8925-9456C7EBBDCC}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{070BBD11-C3C8-47B3-AC68-6B7F19B63D6F}" name="Test Case ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{E42CC383-D2EA-45A7-9F02-5A48A711619A}" name="Sprint" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4125011B-EA06-4ABF-82FB-A35D7C25FFBE}" name="User Story" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{0E124D96-061D-460D-98F3-D19B7506A14B}" name="Test Case Description" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E945F1F4-F95F-44DD-84F7-4F354C9ADE68}" name="Prerequisite" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{B41E1F24-F3E7-41F7-ADA1-320A7AB2AD60}" name="Test Data" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{E8E73CD1-D785-4FEC-ACB7-23C5CB7DBCD0}" name="Test Scenario" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{CA305351-F3DE-4F94-A4B3-DFAD163C2B46}" name="Step Details" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{95445212-E84F-4AC0-894A-FC650183A32D}" name="Expected Results" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{6C573AE1-776B-4BEE-AA71-535D0F94FE1F}" name="Actual Results" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{0C22C208-AED6-4EC2-ABCA-97A89D3BF482}" name="Tagged Defect ID" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{4B434FFF-E39B-4C06-97E2-4EF051D85FD1}" name="Evidence" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9F14E826-C11F-43A8-8925-9456C7EBBDCC}" name="Table2" displayName="Table2" ref="A1:N39" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="A1:N39" xr:uid="{9F14E826-C11F-43A8-8925-9456C7EBBDCC}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{070BBD11-C3C8-47B3-AC68-6B7F19B63D6F}" name="Test Case ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{E42CC383-D2EA-45A7-9F02-5A48A711619A}" name="Sprint" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4125011B-EA06-4ABF-82FB-A35D7C25FFBE}" name="User Story" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{0E124D96-061D-460D-98F3-D19B7506A14B}" name="Test Case Description" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{E945F1F4-F95F-44DD-84F7-4F354C9ADE68}" name="Prerequisite" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{B41E1F24-F3E7-41F7-ADA1-320A7AB2AD60}" name="Test Data" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{E8E73CD1-D785-4FEC-ACB7-23C5CB7DBCD0}" name="Test Scenario" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{CA305351-F3DE-4F94-A4B3-DFAD163C2B46}" name="Step Details" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{95445212-E84F-4AC0-894A-FC650183A32D}" name="Expected Results" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{6C573AE1-776B-4BEE-AA71-535D0F94FE1F}" name="Actual Results" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{0C22C208-AED6-4EC2-ABCA-97A89D3BF482}" name="Tagged Defect ID" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{4B434FFF-E39B-4C06-97E2-4EF051D85FD1}" name="Evidence" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{F868A513-1BA1-4517-9C3A-DD6DBB6F8800}" name="Automation/Manual" dataDxfId="3"/>
     <tableColumn id="14" xr3:uid="{36F7B6D5-252F-43AB-BEAB-3006F6786524}" name="Test Type" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2189,20 +2290,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{28BEF41F-86A3-4701-9489-0A6D3EAB6C0D}" name="Table3" displayName="Table3" ref="A1:K3" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
-  <autoFilter ref="A1:K3" xr:uid="{28BEF41F-86A3-4701-9489-0A6D3EAB6C0D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{28BEF41F-86A3-4701-9489-0A6D3EAB6C0D}" name="Table3" displayName="Table3" ref="A1:K4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="A1:K4" xr:uid="{28BEF41F-86A3-4701-9489-0A6D3EAB6C0D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D0AFBD4A-6653-451C-9F3E-ABBBF4525289}" name="Defect ID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{05244D7F-F071-4181-9E36-E3D2ABE4C795}" name="Sprint" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{3C4064FF-762D-4BDC-9D80-EC4540ACDCFE}" name="User Story" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{A21286D4-8952-470D-ABBC-DE0B4787D24B}" name="Test Case ID" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{61DC43EC-A998-45B5-8413-064E850E8D0A}" name="Test Data" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{EA246024-E703-4BBA-A8AB-092EBEB552AA}" name="Test Case Description" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{4AF8A4D5-A71F-4586-A6A2-CE2CA30A8F43}" name="Defect Description" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{146F157B-EB9B-4699-A1CE-F4EB4FBF8142}" name="Step Details" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{EC05D26C-8167-4D41-B8AE-38E2737C0035}" name="Expected Results" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{94262B80-EDCE-43C9-B780-D7CB084BAA01}" name="Actual Results" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{307C5D01-DDF0-4F9A-8FEB-4C49003D89D9}" name="Status" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{D0AFBD4A-6653-451C-9F3E-ABBBF4525289}" name="Defect ID" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{05244D7F-F071-4181-9E36-E3D2ABE4C795}" name="Sprint" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{3C4064FF-762D-4BDC-9D80-EC4540ACDCFE}" name="User Story" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{A21286D4-8952-470D-ABBC-DE0B4787D24B}" name="Test Case ID" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{61DC43EC-A998-45B5-8413-064E850E8D0A}" name="Test Data" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{EA246024-E703-4BBA-A8AB-092EBEB552AA}" name="Test Case Description" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{4AF8A4D5-A71F-4586-A6A2-CE2CA30A8F43}" name="Defect Description" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{146F157B-EB9B-4699-A1CE-F4EB4FBF8142}" name="Step Details" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{EC05D26C-8167-4D41-B8AE-38E2737C0035}" name="Expected Results" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{94262B80-EDCE-43C9-B780-D7CB084BAA01}" name="Actual Results" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{307C5D01-DDF0-4F9A-8FEB-4C49003D89D9}" name="Status" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2644,1200 +2745,1480 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E96256-CD2D-4B37-A720-8EC3852A916E}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N20" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="21" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="C39" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D39" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="F39" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="H39" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="18"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="N39" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3850,10 +4231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A1E3F-1A6B-4981-88CB-55E6E131AF90}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -3912,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>36</v>
@@ -3943,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>36</v>
@@ -3965,6 +4346,33 @@
         <v>157</v>
       </c>
       <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
